--- a/medicine/Enfance/Geneviève_Brisac/Geneviève_Brisac.xlsx
+++ b/medicine/Enfance/Geneviève_Brisac/Geneviève_Brisac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Brisac</t>
+          <t>Geneviève_Brisac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geneviève Alice Angeline Brisac née à Paris le 18 décembre 1951, est écrivaine et éditrice. Elle reçoit le prix Femina en 1996 pour son roman Week-end de chasse à la mère.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Brisac</t>
+          <t>Geneviève_Brisac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,22 +523,24 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est née à Paris et a été éduquée dans une famille d’intellectuels de gauche anglophiles[1]. Sa mère Hélène Misserly s'était fait un nom en écrivant des livres pour la jeunesse (Un monstre dans la vitrine), en scénarisant des Maigret, en adaptant Agatha Christie, en rédigeant des feuilletons pour RTL et en réalisant des dramatiques pour l'ORTF[2].
-Ancienne élève de l'École normale supérieure de Fontenay[3] et agrégée de lettres, Geneviève Brisac est enseignante pendant six ans en Seine-Saint-Denis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née à Paris et a été éduquée dans une famille d’intellectuels de gauche anglophiles. Sa mère Hélène Misserly s'était fait un nom en écrivant des livres pour la jeunesse (Un monstre dans la vitrine), en scénarisant des Maigret, en adaptant Agatha Christie, en rédigeant des feuilletons pour RTL et en réalisant des dramatiques pour l'ORTF.
+Ancienne élève de l'École normale supérieure de Fontenay et agrégée de lettres, Geneviève Brisac est enseignante pendant six ans en Seine-Saint-Denis.
 Son adolescence est marquée par une longue période d'anorexie qu'elle décrit dans un livre autobiographique intitulé Petite, sorti en 1994 aux éditions de l'Olivier.
-Elle devient éditrice chez Gallimard, où elle publie son premier roman, Les Filles, qui obtient le prix Roland de Jouvenel de l'Académie française en 1988[4]. Elle crée en 1987 la collection littéraire « Page blanche » destinée aux adolescents et la dirige jusqu'en 1989.
+Elle devient éditrice chez Gallimard, où elle publie son premier roman, Les Filles, qui obtient le prix Roland de Jouvenel de l'Académie française en 1988. Elle crée en 1987 la collection littéraire « Page blanche » destinée aux adolescents et la dirige jusqu'en 1989.
 Elle dirige les collections Mouche, Neuf et Médium à L'École des loisirs depuis 1989.
 Elle collabore longtemps au Monde des livres et intervient régulièrement sur France Culture.
 À L'École des loisirs, elle publie la série des Histoires d’Olga, une petite fille toujours prête à l’aventure, mais aussi à la révolte contre les injustices et le mensonge, et de Monelle qui porte le beau prénom d’un personnage inventé par l’écrivain Marcel Schwob qui disait : « Vis dans l’instant ! Seul l’instant est vérité ».
-Son livre Week-end de chasse à la mère est récompensé par le Prix Femina, en 1996. Elle publie un recueil de nouvelles, Pour qui vous prenez-vous ?, deux essais, Loin du Paradis[5], consacré à Flannery O'Connor, et La Marche du cavalier (éditions de l'Olivier), ainsi que plus d'une vingtaine de livres pour la jeunesse.
-Elle s'est beaucoup intéressée à Virginia Woolf, publiant V. W.: le mélange des genres (avec Agnès Desarthe) (Paris : Éditions de l'Olivier, 2004)[6], republié sous le titre de La double vie de Virginia Woolf (Paris : Points, 2008).
-Depuis janvier 2007, elle est engagée aux côtés de Bibliothèques Sans Frontières, une ONG française qui vise à faciliter l'accès au savoir dans les pays en développement. La même année, elle signe l'« appel des intellectuels » appelant à voter pour Ségolène Royal[7]. Lors de l'élection présidentielle française de 2012, elle décide de soutenir la candidature de François Hollande.
-Proche de l'ONG Bibliothèques Sans Frontières, elle déclare : « Les livres m’ont plusieurs fois sauvé la vie, j’essaie de leur rendre la monnaie de leur pièce. Ma dette est illimitée. »[8]
-En juillet 2009, elle est nommée chevalier de l'ordre de la Légion d'honneur[9].
-En 2013, elle préside le jury du Prix du Livre Inter[10].
-En janvier 2014, elle est promue au grade de commandeur de l'ordre des Arts et des Lettres[11].
+Son livre Week-end de chasse à la mère est récompensé par le Prix Femina, en 1996. Elle publie un recueil de nouvelles, Pour qui vous prenez-vous ?, deux essais, Loin du Paradis, consacré à Flannery O'Connor, et La Marche du cavalier (éditions de l'Olivier), ainsi que plus d'une vingtaine de livres pour la jeunesse.
+Elle s'est beaucoup intéressée à Virginia Woolf, publiant V. W.: le mélange des genres (avec Agnès Desarthe) (Paris : Éditions de l'Olivier, 2004), republié sous le titre de La double vie de Virginia Woolf (Paris : Points, 2008).
+Depuis janvier 2007, elle est engagée aux côtés de Bibliothèques Sans Frontières, une ONG française qui vise à faciliter l'accès au savoir dans les pays en développement. La même année, elle signe l'« appel des intellectuels » appelant à voter pour Ségolène Royal. Lors de l'élection présidentielle française de 2012, elle décide de soutenir la candidature de François Hollande.
+Proche de l'ONG Bibliothèques Sans Frontières, elle déclare : « Les livres m’ont plusieurs fois sauvé la vie, j’essaie de leur rendre la monnaie de leur pièce. Ma dette est illimitée. »
+En juillet 2009, elle est nommée chevalier de l'ordre de la Légion d'honneur.
+En 2013, elle préside le jury du Prix du Livre Inter.
+En janvier 2014, elle est promue au grade de commandeur de l'ordre des Arts et des Lettres.
 </t>
         </is>
       </c>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Brisac</t>
+          <t>Geneviève_Brisac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,8 +571,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans, essais, biographies
-Les Filles, Gallimard, 1987 (prix de l'Académie française) ; coll. « Folio », 1997
+          <t>Romans, essais, biographies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Filles, Gallimard, 1987 (prix de l'Académie française) ; coll. « Folio », 1997
 Madame Placard, Gallimard, coll. Blanche, 1989
 Loin du paradis. Flannery O'Connor, Gallimard, coll. « L'un et l'autre », 1991
 Petite, L'Olivier, 1994 ; Points Seuil, 1996
@@ -570,7 +589,7 @@
 La vie ne suffit pas, Penser/Rêver no 4, L'informe, Mercure de France, 2003
 ABC, Penser/Rêver no 6, La haine des enfants, Mercure de France, 2004
 52 ou la seconde vie, éditions de l'Olivier, 2007 ; réédité sous le titre Les filles sont au café, Points Seuil, 2010
-Une année avec mon père, éditions de l'Olivier, 2010 ; Points Seuil, 2011 (Prix des Éditeurs 2010). (Traduit en persan, 2023) [1]
+Une année avec mon père, éditions de l'Olivier, 2010 ; Points Seuil, 2011 (Prix des Éditeurs 2010). (Traduit en persan, 2023) 
 Moi, j'attends de voir passer un pingouin, Alma éditeur, 2012
 Dans les yeux des autres, éditions de l'Olivier, 2014 ; Points Seuil, 2015
 Vie de ma voisine, Éditions Grasset &amp; Fasquelle, 201
@@ -578,9 +597,43 @@
 Le Chagrin d'aimer, Éditions Grasset, 2018
 Mes Mots sauvages, Points Seuil, coll. « Points Goût des Mots », 2018
 Sisyphe est une femme, la Marche du cavalier, L’Olivier, coll. « Les feux », 2019, 216 p.
-Les Enchanteurs, L'Olivier, 2022, 192 p. (Traduit en persan, 2023) [2]
-Ouvrages de littérature d'enfance et de jeunesse
-Olga, illustrations de Michel Gay - L'École des loisirs, coll. « Mouche », 1990
+Les Enchanteurs, L'Olivier, 2022, 192 p. (Traduit en persan, 2023) </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geneviève_Brisac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Brisac</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Olga, illustrations de Michel Gay - L'École des loisirs, coll. « Mouche », 1990
 Olga n'aime pas l'école, illustrations Michel Gay - L'École des loisirs, coll. « Mouche », 1991
 Monelle et les baby-sitters - L'École des loisirs, coll. « Neuf », 1992
 Les Amies d'Olga, illustrations de Michel Gay - L'École des loisirs, coll. « Mouche », 1992
@@ -611,43 +664,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Genevi%C3%A8ve_Brisac</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Brisac</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cinéma</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2009 : Non ma fille tu n'iras pas danser de Christophe Honoré : coscénariste</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Brisac</t>
+          <t>Geneviève_Brisac</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -662,12 +685,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Théâtre</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2008-2010 : Je vois des choses que vous ne voyez pas, mise en scène Damien Bricoteaux, Manufacture des Abbesses puis Théâtre Rive Gauche</t>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2009 : Non ma fille tu n'iras pas danser de Christophe Honoré : coscénariste</t>
         </is>
       </c>
     </row>
@@ -677,7 +702,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Brisac</t>
+          <t>Geneviève_Brisac</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -692,19 +717,90 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2008-2010 : Je vois des choses que vous ne voyez pas, mise en scène Damien Bricoteaux, Manufacture des Abbesses puis Théâtre Rive Gauche</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geneviève_Brisac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Brisac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distinctions
-1988 : Prix Roland de Jouvenel de l'Académie française pour Les Filles
-1996 : Prix Femina pour Week-end de chasse à la mère
-Décorations
- Chevalier de la Légion d'honneur (nommée en 2009)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1988 : Prix Roland de Jouvenel de l'Académie française pour Les Filles
+1996 : Prix Femina pour Week-end de chasse à la mère</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Geneviève_Brisac</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genevi%C3%A8ve_Brisac</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (nommée en 2009)
  Commandeur de l'ordre des Arts et des Lettres (2023)
-Le 13 juillet 2009, Geneviève Brisac est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de  « éditrice, écrivaine ; 33 ans d'activités littéraires et professionnelles »[12].
-Le 16 janvier 2014, elle est nommée au grade d'officier dans l'ordre des Arts et des Lettres au titre de « Ecrivaine »[13]. Elle est promue commandeur dans ce même ordre le 2 novembre 2023[14]
+Le 13 juillet 2009, Geneviève Brisac est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de  « éditrice, écrivaine ; 33 ans d'activités littéraires et professionnelles ».
+Le 16 janvier 2014, elle est nommée au grade d'officier dans l'ordre des Arts et des Lettres au titre de « Ecrivaine ». Elle est promue commandeur dans ce même ordre le 2 novembre 2023
 </t>
         </is>
       </c>
